--- a/operation_excel/Excel/testcase.xlsx
+++ b/operation_excel/Excel/testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\testcase\requests\operation_excel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB9A54-644A-4110-95A7-3670728F2C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90442B31-4BF6-4C12-B8AF-0685B0561B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2863" yWindow="4894" windowWidth="16697" windowHeight="3952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3943" yWindow="3043" windowWidth="22200" windowHeight="12206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,33 @@
   <si>
     <t>{ "account": "admin","autoLogin": "false","password": "sjkyadmin"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘雨</t>
+  </si>
+  <si>
+    <t>胡桃</t>
+  </si>
+  <si>
+    <t>瑶瑶</t>
+  </si>
+  <si>
+    <t>蒙德</t>
+  </si>
+  <si>
+    <t>璃月</t>
+  </si>
+  <si>
+    <t>稻妻</t>
+  </si>
+  <si>
+    <t>温迪</t>
+  </si>
+  <si>
+    <t>钟离</t>
+  </si>
+  <si>
+    <t>雷电影</t>
   </si>
 </sst>
 </file>
@@ -476,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -624,6 +651,45 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
